--- a/beast-bind/checklist.xlsx
+++ b/beast-bind/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/beast-bind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CA65ED4-E7F3-6D47-8067-8B5CA192F8E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BE96C3-E849-9B4D-A0D2-4D3FF7FB190A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{0D772214-7429-B343-A034-886F6AD86555}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{0D772214-7429-B343-A034-886F6AD86555}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>year</t>
   </si>
@@ -99,6 +99,90 @@
   </si>
   <si>
     <t>Beast Bind Eva</t>
+  </si>
+  <si>
+    <t>ビーストバインド トリニティ</t>
+  </si>
+  <si>
+    <t>Beast Bind Trinity</t>
+  </si>
+  <si>
+    <t>beast_bind_trinity.jpg</t>
+  </si>
+  <si>
+    <t>beast_bind_decade.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ビーストバインド トリニティ サプリメント ディケイド </t>
+  </si>
+  <si>
+    <t>Beast Bind Decade</t>
+  </si>
+  <si>
+    <t>ビーストバインド トリニティ サプリメント ドミニオンズ</t>
+  </si>
+  <si>
+    <t>Beast Bind Dominion</t>
+  </si>
+  <si>
+    <t>beast_bind_dominion.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ビーストバインド トリニティ サプリメント アドヴェント </t>
+  </si>
+  <si>
+    <t>Beast Bind Advent</t>
+  </si>
+  <si>
+    <t>beast_bind_advent.jpg</t>
+  </si>
+  <si>
+    <t>人魔邂逅</t>
+  </si>
+  <si>
+    <t>Human-Demon Encounter</t>
+  </si>
+  <si>
+    <t>human_demon_encounter.jpg</t>
+  </si>
+  <si>
+    <t>replay</t>
+  </si>
+  <si>
+    <t>魔王再誕</t>
+  </si>
+  <si>
+    <t>Demon King Rebirth</t>
+  </si>
+  <si>
+    <t>demon_king_rebirth.jpg</t>
+  </si>
+  <si>
+    <t>海魔夜航</t>
+  </si>
+  <si>
+    <t>Sea Devil Night Cruise</t>
+  </si>
+  <si>
+    <t>sea_devil_night_cruise.jpg</t>
+  </si>
+  <si>
+    <t>罪館事件</t>
+  </si>
+  <si>
+    <t>Sinkan Case</t>
+  </si>
+  <si>
+    <t>sinkan_case.jpg</t>
+  </si>
+  <si>
+    <t>吸血魔街</t>
+  </si>
+  <si>
+    <t>Vampire Town</t>
+  </si>
+  <si>
+    <t>vampire_town.jpg</t>
   </si>
 </sst>
 </file>
@@ -459,16 +543,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B532FA69-A912-3A4F-AA93-8DCA2BACA5FC}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" customWidth="1"/>
+    <col min="2" max="2" width="52" customWidth="1"/>
     <col min="3" max="3" width="41.5" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="25.33203125" customWidth="1"/>
@@ -574,6 +658,186 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2010</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2011</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2012</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2015</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2010</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2012</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2014</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2015</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2016</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
